--- a/saved/laporan_siuk.xlsx
+++ b/saved/laporan_siuk.xlsx
@@ -26,7 +26,7 @@
     <t>Kantor Pusat Pemerintahan Kabupaten Bireuen, Cot Gapu Telp (0644) 21212 BIREUEN</t>
   </si>
   <si>
-    <t>Daftar Surat Izin Tempat Usaha (SITU) Bulan 12 Tahun 2014</t>
+    <t>Laporan Surat Izin Usaha Kepariwisataan (SIUK) Bulan 12 Tahun 2014</t>
   </si>
   <si>
     <t>No</t>
@@ -80,9 +80,6 @@
     <t>Jl. T. Hamzah Bendahara Gp. Bandar Bireuen Kec. Kota Juang</t>
   </si>
   <si>
-    <t>WARUNG KOPI</t>
-  </si>
-  <si>
     <t>KOTA JUANG</t>
   </si>
   <si>
@@ -95,16 +92,19 @@
     <t>√</t>
   </si>
   <si>
-    <t>Kepala Kantor</t>
-  </si>
-  <si>
-    <t>Pelayanan Perizinan Terpadu Satu Pintu</t>
-  </si>
-  <si>
-    <t>M NASIR</t>
-  </si>
-  <si>
-    <t>NIP. 123456789 001 19363892</t>
+    <t>Kepala Kantor Pelayanan Perizinan Terpadu Satu Pintu</t>
+  </si>
+  <si>
+    <t>Kabupaten Bireuen</t>
+  </si>
+  <si>
+    <t>MUHAMMAD NASIR, SP</t>
+  </si>
+  <si>
+    <t>PEMBINA</t>
+  </si>
+  <si>
+    <t>NIP. 19621231 198711 1 002</t>
   </si>
 </sst>
 </file>
@@ -537,7 +537,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="L9" sqref="L9"/>
@@ -688,41 +688,46 @@
       <c r="E9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
     <row r="12" spans="1:12">
       <c r="H12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="H13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="H17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="H18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="H19" t="s">
         <v>29</v>
       </c>
     </row>
